--- a/Data_preparation/datasets/final_data/Palo_Alto_Networks_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Palo_Alto_Networks_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,66 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>000660 KS</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>4755 JP</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>2395 TT</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>4488 JP</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
   </si>
 </sst>
 </file>
@@ -712,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>551.1687846760174</v>
+        <v>21.02666664123535</v>
       </c>
       <c r="E2">
-        <v>607.9558715820312</v>
+        <v>23.70333290100098</v>
       </c>
       <c r="F2">
-        <v>621.3175390893286</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="G2">
-        <v>532.7964918534834</v>
+        <v>20.21833229064941</v>
       </c>
       <c r="H2">
-        <v>1333460157</v>
+        <v>676870933</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>10180201609</v>
@@ -828,22 +768,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>40133.52395731409</v>
+        <v>25.01166725158692</v>
       </c>
       <c r="E3">
-        <v>44438.203125</v>
+        <v>28.24833297729492</v>
       </c>
       <c r="F3">
-        <v>44612.12955601761</v>
+        <v>28.30666732788086</v>
       </c>
       <c r="G3">
-        <v>38611.66768590998</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="H3">
-        <v>690412123</v>
+        <v>676870933</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>12153343038</v>
@@ -944,22 +884,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>60.81641263099306</v>
+        <v>31.0583324432373</v>
       </c>
       <c r="E4">
-        <v>48.77188110351562</v>
+        <v>27.3700008392334</v>
       </c>
       <c r="F4">
-        <v>60.81641263099306</v>
+        <v>31.83333206176757</v>
       </c>
       <c r="G4">
-        <v>41.81658610771005</v>
+        <v>23.3983325958252</v>
       </c>
       <c r="H4">
-        <v>134011000</v>
+        <v>676870933</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>15546509182</v>
@@ -1060,22 +1000,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>1969.340224847561</v>
+        <v>26.96666717529297</v>
       </c>
       <c r="E5">
-        <v>1682.144775390625</v>
+        <v>31.22333335876465</v>
       </c>
       <c r="F5">
-        <v>2069.630699261094</v>
+        <v>31.38333320617676</v>
       </c>
       <c r="G5">
-        <v>1654.792827823298</v>
+        <v>25.47999954223633</v>
       </c>
       <c r="H5">
-        <v>52985470</v>
+        <v>676870933</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>13686431612</v>
@@ -1176,22 +1116,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>31.42467530349205</v>
+        <v>24.64666748046875</v>
       </c>
       <c r="E6">
-        <v>33.01868057250977</v>
+        <v>24.13166618347168</v>
       </c>
       <c r="F6">
-        <v>34.52160121601733</v>
+        <v>25.65500068664551</v>
       </c>
       <c r="G6">
-        <v>29.69403962155338</v>
+        <v>18.51499938964844</v>
       </c>
       <c r="H6">
-        <v>80995217</v>
+        <v>676870933</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>12842528637</v>
@@ -1292,22 +1232,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>7.405064369291272</v>
+        <v>25.27499961853028</v>
       </c>
       <c r="E7">
-        <v>8.19680118560791</v>
+        <v>21.74333381652832</v>
       </c>
       <c r="F7">
-        <v>8.252687967757092</v>
+        <v>25.33166694641113</v>
       </c>
       <c r="G7">
-        <v>7.405064369291272</v>
+        <v>21.375</v>
       </c>
       <c r="H7">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>13332453111</v>
@@ -1408,22 +1348,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>18.73999977111816</v>
+        <v>21.80999946594238</v>
       </c>
       <c r="E8">
-        <v>19.07999992370605</v>
+        <v>22.19499969482422</v>
       </c>
       <c r="F8">
-        <v>19.22999954223633</v>
+        <v>24.04166793823243</v>
       </c>
       <c r="G8">
-        <v>18.45000076293945</v>
+        <v>20.79000091552734</v>
       </c>
       <c r="H8">
-        <v>168262866</v>
+        <v>676870933</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>11728091120</v>
@@ -1524,22 +1464,22 @@
         <v>42674</v>
       </c>
       <c r="D9">
-        <v>6.503918984490821</v>
+        <v>25.625</v>
       </c>
       <c r="E9">
-        <v>6.110658645629883</v>
+        <v>22.39500045776367</v>
       </c>
       <c r="F9">
-        <v>6.609797575343244</v>
+        <v>27.61499977111816</v>
       </c>
       <c r="G9">
-        <v>5.868652505960939</v>
+        <v>22.02000045776367</v>
       </c>
       <c r="H9">
-        <v>1853869000</v>
+        <v>676870933</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>13975525800</v>
@@ -1640,22 +1580,22 @@
         <v>42766</v>
       </c>
       <c r="D10">
-        <v>10.52727558051394</v>
+        <v>24.66666793823243</v>
       </c>
       <c r="E10">
-        <v>13.56747913360596</v>
+        <v>25.31666755676269</v>
       </c>
       <c r="F10">
-        <v>14.4447525208642</v>
+        <v>26.27499961853028</v>
       </c>
       <c r="G10">
-        <v>10.49702444959566</v>
+        <v>24.1016674041748</v>
       </c>
       <c r="H10">
-        <v>1853869000</v>
+        <v>676870933</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>13529249758</v>
@@ -1756,22 +1696,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>10.96160405494972</v>
+        <v>18.125</v>
       </c>
       <c r="E11">
-        <v>11.86961078643799</v>
+        <v>19.76499938964844</v>
       </c>
       <c r="F11">
-        <v>12.02874601441194</v>
+        <v>20.34666633605957</v>
       </c>
       <c r="G11">
-        <v>10.91479941859429</v>
+        <v>18.02499961853028</v>
       </c>
       <c r="H11">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>9977650730</v>
@@ -1872,22 +1812,22 @@
         <v>42947</v>
       </c>
       <c r="D12">
-        <v>53.40000152587891</v>
+        <v>22.09666633605957</v>
       </c>
       <c r="E12">
-        <v>55.95999908447266</v>
+        <v>22.11499977111816</v>
       </c>
       <c r="F12">
-        <v>56.47000122070312</v>
+        <v>22.47999954223633</v>
       </c>
       <c r="G12">
-        <v>51.88999938964844</v>
+        <v>21.09333229064941</v>
       </c>
       <c r="H12">
-        <v>134598631</v>
+        <v>676870933</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>12100554464</v>
@@ -1988,22 +1928,22 @@
         <v>43039</v>
       </c>
       <c r="D13">
-        <v>21.62152143183168</v>
+        <v>24.59666633605957</v>
       </c>
       <c r="E13">
-        <v>23.16013145446777</v>
+        <v>24.29166793823243</v>
       </c>
       <c r="F13">
-        <v>24.5772729208108</v>
+        <v>26.14166641235352</v>
       </c>
       <c r="G13">
-        <v>20.73074630617233</v>
+        <v>22.64166641235352</v>
       </c>
       <c r="H13">
-        <v>4500000193</v>
+        <v>676870933</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>13519195981</v>
@@ -2104,22 +2044,22 @@
         <v>43131</v>
       </c>
       <c r="D14">
-        <v>35.34337705901206</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="E14">
-        <v>32.32989120483398</v>
+        <v>28.89500045776367</v>
       </c>
       <c r="F14">
-        <v>35.45498957633133</v>
+        <v>29.85833358764648</v>
       </c>
       <c r="G14">
-        <v>27.00978043662206</v>
+        <v>24.73500061035156</v>
       </c>
       <c r="H14">
-        <v>1853869000</v>
+        <v>676870933</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>14506509799</v>
@@ -2220,22 +2160,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>79.26000213623047</v>
+        <v>31.95833206176757</v>
       </c>
       <c r="E15">
-        <v>92.62000274658205</v>
+        <v>34.68166732788086</v>
       </c>
       <c r="F15">
-        <v>92.72000122070312</v>
+        <v>35.28499984741211</v>
       </c>
       <c r="G15">
-        <v>79.26000213623047</v>
+        <v>31.63999938964844</v>
       </c>
       <c r="H15">
-        <v>134598631</v>
+        <v>676870933</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>17681712960</v>
@@ -2336,22 +2276,22 @@
         <v>43312</v>
       </c>
       <c r="D16">
-        <v>21.76148054823298</v>
+        <v>33.4283332824707</v>
       </c>
       <c r="E16">
-        <v>20.4462776184082</v>
+        <v>38.52500152587891</v>
       </c>
       <c r="F16">
-        <v>21.77080844308946</v>
+        <v>38.71833419799805</v>
       </c>
       <c r="G16">
-        <v>19.47619790270293</v>
+        <v>33.00333404541016</v>
       </c>
       <c r="H16">
-        <v>1299391231</v>
+        <v>676870933</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>18414407833</v>
@@ -2452,22 +2392,22 @@
         <v>43404</v>
       </c>
       <c r="D17">
-        <v>422.3371489797596</v>
+        <v>30.75</v>
       </c>
       <c r="E17">
-        <v>432.8736267089844</v>
+        <v>28.82500076293945</v>
       </c>
       <c r="F17">
-        <v>446.0442238705153</v>
+        <v>32.04499816894531</v>
       </c>
       <c r="G17">
-        <v>392.4837954136227</v>
+        <v>26.68000030517578</v>
       </c>
       <c r="H17">
-        <v>275900103</v>
+        <v>676870933</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>17173359174</v>
@@ -2568,22 +2508,22 @@
         <v>43496</v>
       </c>
       <c r="D18">
-        <v>43.4900016784668</v>
+        <v>35.84999847412109</v>
       </c>
       <c r="E18">
-        <v>47.5</v>
+        <v>41.04499816894531</v>
       </c>
       <c r="F18">
-        <v>49.40000152587891</v>
+        <v>43.43833160400391</v>
       </c>
       <c r="G18">
-        <v>42.06000137329102</v>
+        <v>35.73333358764648</v>
       </c>
       <c r="H18">
-        <v>168262866</v>
+        <v>676870933</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>20382308493</v>
@@ -2684,22 +2624,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>1214.796060301659</v>
+        <v>41.58166885375977</v>
       </c>
       <c r="E19">
-        <v>1116.432006835938</v>
+        <v>33.35666656494141</v>
       </c>
       <c r="F19">
-        <v>1226.599746717546</v>
+        <v>41.82333374023438</v>
       </c>
       <c r="G19">
-        <v>1026.920718182131</v>
+        <v>32.8466682434082</v>
       </c>
       <c r="H19">
-        <v>2165034529</v>
+        <v>676870933</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>23323570695</v>
@@ -2800,22 +2740,22 @@
         <v>43677</v>
       </c>
       <c r="D20">
-        <v>38446.24285333807</v>
+        <v>37.77500152587891</v>
       </c>
       <c r="E20">
-        <v>37675.60546875</v>
+        <v>33.93666839599609</v>
       </c>
       <c r="F20">
-        <v>38960.00110973012</v>
+        <v>38.32333374023438</v>
       </c>
       <c r="G20">
-        <v>36391.20982776989</v>
+        <v>32.0283317565918</v>
       </c>
       <c r="H20">
-        <v>5876745450</v>
+        <v>676870933</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>21742174914</v>
@@ -2916,22 +2856,22 @@
         <v>43769</v>
       </c>
       <c r="D21">
-        <v>216.0224425003191</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>214.2341766357422</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="F21">
-        <v>228.8979514438034</v>
+        <v>41.82500076293945</v>
       </c>
       <c r="G21">
-        <v>211.3729406894807</v>
+        <v>35.81666564941406</v>
       </c>
       <c r="H21">
-        <v>864374000</v>
+        <v>676870933</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>22054665247</v>
@@ -3032,22 +2972,22 @@
         <v>43861</v>
       </c>
       <c r="D22">
-        <v>3586.923489154015</v>
+        <v>39.14333343505859</v>
       </c>
       <c r="E22">
-        <v>3214.813720703125</v>
+        <v>30.77000045776367</v>
       </c>
       <c r="F22">
-        <v>3764.033427022468</v>
+        <v>41.85166549682617</v>
       </c>
       <c r="G22">
-        <v>3176.350451368057</v>
+        <v>30.17666625976562</v>
       </c>
       <c r="H22">
-        <v>933160187</v>
+        <v>676870933</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>22998446589</v>
@@ -3148,22 +3088,22 @@
         <v>43951</v>
       </c>
       <c r="D23">
-        <v>61.31663254339616</v>
+        <v>32.16666793823242</v>
       </c>
       <c r="E23">
-        <v>65.48236083984375</v>
+        <v>39.21166610717773</v>
       </c>
       <c r="F23">
-        <v>65.48236083984375</v>
+        <v>40.52333450317383</v>
       </c>
       <c r="G23">
-        <v>58.10097700564869</v>
+        <v>31.75833320617676</v>
       </c>
       <c r="H23">
-        <v>229140423</v>
+        <v>676870933</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>19593002628</v>
@@ -3264,22 +3204,22 @@
         <v>44043</v>
       </c>
       <c r="D24">
-        <v>20.48438710880833</v>
+        <v>42.6533317565918</v>
       </c>
       <c r="E24">
-        <v>22.1794490814209</v>
+        <v>42.90166854858398</v>
       </c>
       <c r="F24">
-        <v>23.09880543964613</v>
+        <v>45.83833312988281</v>
       </c>
       <c r="G24">
-        <v>20.29285582801626</v>
+        <v>41.78666687011719</v>
       </c>
       <c r="H24">
-        <v>1299391231</v>
+        <v>676870933</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>24687550057</v>
@@ -3380,22 +3320,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>976.7760905237012</v>
+        <v>37.13166809082031</v>
       </c>
       <c r="E25">
-        <v>1047.47607421875</v>
+        <v>48.98666763305664</v>
       </c>
       <c r="F25">
-        <v>1075.383962519427</v>
+        <v>49.75</v>
       </c>
       <c r="G25">
-        <v>963.7524093167184</v>
+        <v>36.82833480834961</v>
       </c>
       <c r="H25">
-        <v>1333460157</v>
+        <v>676870933</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>21316808900</v>
@@ -3496,22 +3436,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>83.23999786376953</v>
+        <v>59.14833450317383</v>
       </c>
       <c r="E26">
-        <v>67.58000183105469</v>
+        <v>59.71833419799805</v>
       </c>
       <c r="F26">
-        <v>85.95999908447266</v>
+        <v>67.16666412353516</v>
       </c>
       <c r="G26">
-        <v>67.16000366210938</v>
+        <v>58.66666793823242</v>
       </c>
       <c r="H26">
-        <v>134598631</v>
+        <v>676870933</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>33395503775</v>
@@ -3612,22 +3552,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>33.58668313750795</v>
+        <v>59.26166534423828</v>
       </c>
       <c r="E27">
-        <v>37.19651412963867</v>
+        <v>60.54166793823242</v>
       </c>
       <c r="F27">
-        <v>37.54030790440957</v>
+        <v>62.38166809082031</v>
       </c>
       <c r="G27">
-        <v>31.38067915433425</v>
+        <v>53.70500183105469</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>34364563474</v>
@@ -3728,22 +3668,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>40.16067314860691</v>
+        <v>66.66666412353516</v>
       </c>
       <c r="E28">
-        <v>42.54341125488281</v>
+        <v>76.83999633789062</v>
       </c>
       <c r="F28">
-        <v>43.23517523141464</v>
+        <v>77.48332977294922</v>
       </c>
       <c r="G28">
-        <v>39.97812595039599</v>
+        <v>59.72833251953125</v>
       </c>
       <c r="H28">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>38863829866</v>
@@ -3844,22 +3784,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>45.29000091552734</v>
+        <v>85.08499908447266</v>
       </c>
       <c r="E29">
-        <v>45.31000137329102</v>
+        <v>91.15666961669922</v>
       </c>
       <c r="F29">
-        <v>47.68999862670898</v>
+        <v>93.25666809082033</v>
       </c>
       <c r="G29">
-        <v>43.29999923706055</v>
+        <v>80.87666320800781</v>
       </c>
       <c r="H29">
-        <v>134598631</v>
+        <v>676870933</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>49588478067</v>
@@ -3960,22 +3900,22 @@
         <v>44592</v>
       </c>
       <c r="D30">
-        <v>35.83162434895833</v>
+        <v>86.30999755859375</v>
       </c>
       <c r="E30">
-        <v>38.0164794921875</v>
+        <v>99.04166412353516</v>
       </c>
       <c r="F30">
-        <v>39.4584852202485</v>
+        <v>99.21666717529295</v>
       </c>
       <c r="G30">
-        <v>35.61313883463541</v>
+        <v>77.75</v>
       </c>
       <c r="H30">
-        <v>1853869000</v>
+        <v>676870933</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>51049995877</v>
@@ -4076,22 +4016,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>22.09336579313935</v>
+        <v>93.0433349609375</v>
       </c>
       <c r="E31">
-        <v>23.29409217834473</v>
+        <v>83.79666900634766</v>
       </c>
       <c r="F31">
-        <v>23.81440663990654</v>
+        <v>95.47833251953124</v>
       </c>
       <c r="G31">
-        <v>21.77317239577843</v>
+        <v>70.25833129882812</v>
       </c>
       <c r="H31">
-        <v>3006208000</v>
+        <v>676870933</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>55277320103</v>
@@ -4192,22 +4132,22 @@
         <v>44773</v>
       </c>
       <c r="D32">
-        <v>4254.562937903886</v>
+        <v>83.2933349609375</v>
       </c>
       <c r="E32">
-        <v>4214.35498046875</v>
+        <v>92.80166625976562</v>
       </c>
       <c r="F32">
-        <v>4662.25292492061</v>
+        <v>96.46499633789062</v>
       </c>
       <c r="G32">
-        <v>4134.87413437604</v>
+        <v>80.67832946777344</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>676870933</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>49728023149</v>
@@ -4308,22 +4248,22 @@
         <v>44865</v>
       </c>
       <c r="D33">
-        <v>103.0565051934738</v>
+        <v>86.97000122070312</v>
       </c>
       <c r="E33">
-        <v>100.1065902709961</v>
+        <v>84.94999694824219</v>
       </c>
       <c r="F33">
-        <v>103.2944010898022</v>
+        <v>88.05000305175781</v>
       </c>
       <c r="G33">
-        <v>92.26554356081324</v>
+        <v>70.03500366210938</v>
       </c>
       <c r="H33">
-        <v>229140423</v>
+        <v>676870933</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>51342097315</v>
@@ -4424,22 +4364,22 @@
         <v>44957</v>
       </c>
       <c r="D34">
-        <v>4540</v>
+        <v>78.67500305175781</v>
       </c>
       <c r="E34">
-        <v>4055</v>
+        <v>94.18499755859376</v>
       </c>
       <c r="F34">
-        <v>4630</v>
+        <v>96.23500061035156</v>
       </c>
       <c r="G34">
-        <v>3990</v>
+        <v>77.05500030517578</v>
       </c>
       <c r="H34">
-        <v>3949743</v>
+        <v>676870933</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>47965902899</v>
@@ -4540,22 +4480,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>32.23731758159914</v>
+        <v>90.33000183105467</v>
       </c>
       <c r="E35">
-        <v>31.26864814758301</v>
+        <v>106.6949996948242</v>
       </c>
       <c r="F35">
-        <v>35.13364081518687</v>
+        <v>109.75</v>
       </c>
       <c r="G35">
-        <v>30.83274801082995</v>
+        <v>88.15000152587891</v>
       </c>
       <c r="H35">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>55213845097</v>
@@ -4656,22 +4596,22 @@
         <v>45138</v>
       </c>
       <c r="D36">
-        <v>32.4632187603901</v>
+        <v>124.9449996948242</v>
       </c>
       <c r="E36">
-        <v>33.70648956298828</v>
+        <v>121.6500015258789</v>
       </c>
       <c r="F36">
-        <v>36.14698826511522</v>
+        <v>127.0149993896484</v>
       </c>
       <c r="G36">
-        <v>30.71342684039912</v>
+        <v>100.5849990844727</v>
       </c>
       <c r="H36">
-        <v>3006208000</v>
+        <v>676870933</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>76451471807</v>
@@ -4784,22 +4724,22 @@
         <v>45230</v>
       </c>
       <c r="D37">
-        <v>3774.013069890922</v>
+        <v>122.5</v>
       </c>
       <c r="E37">
-        <v>3983.142578125</v>
+        <v>147.5449981689453</v>
       </c>
       <c r="F37">
-        <v>4094.484677416292</v>
+        <v>148.0800018310547</v>
       </c>
       <c r="G37">
-        <v>3667.511931438381</v>
+        <v>116.9049987792969</v>
       </c>
       <c r="H37">
-        <v>933160187</v>
+        <v>676870933</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>74994660664</v>
@@ -4912,22 +4852,22 @@
         <v>45322</v>
       </c>
       <c r="D38">
-        <v>133.3595621548987</v>
+        <v>169.5</v>
       </c>
       <c r="E38">
-        <v>141.2014007568359</v>
+        <v>155.2749938964844</v>
       </c>
       <c r="F38">
-        <v>144.3962096656332</v>
+        <v>190.4199981689453</v>
       </c>
       <c r="G38">
-        <v>132.2462214469789</v>
+        <v>130.0449981689453</v>
       </c>
       <c r="H38">
-        <v>229140423</v>
+        <v>676870933</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>106732203000</v>
@@ -5040,22 +4980,22 @@
         <v>45412</v>
       </c>
       <c r="D39">
-        <v>4501.268917429742</v>
+        <v>144.4400024414062</v>
       </c>
       <c r="E39">
-        <v>4303.6474609375</v>
+        <v>147.4550018310547</v>
       </c>
       <c r="F39">
-        <v>4645.082551609741</v>
+        <v>162.3399963378906</v>
       </c>
       <c r="G39">
-        <v>4257.666230961582</v>
+        <v>142</v>
       </c>
       <c r="H39">
-        <v>933160187</v>
+        <v>676870933</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>93986559000</v>
@@ -5168,22 +5108,22 @@
         <v>45504</v>
       </c>
       <c r="D40">
-        <v>4575</v>
+        <v>161.7050018310547</v>
       </c>
       <c r="E40">
-        <v>4110</v>
+        <v>181.3600006103516</v>
       </c>
       <c r="F40">
-        <v>4575</v>
+        <v>187.6849975585937</v>
       </c>
       <c r="G40">
-        <v>3345</v>
+        <v>142.0099945068359</v>
       </c>
       <c r="H40">
-        <v>3949743</v>
+        <v>676870933</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>105147574000</v>
@@ -5296,22 +5236,22 @@
         <v>45596</v>
       </c>
       <c r="D41">
-        <v>2574.390684859702</v>
+        <v>179.5149993896484</v>
       </c>
       <c r="E41">
-        <v>2363.447265625</v>
+        <v>193.9100036621093</v>
       </c>
       <c r="F41">
-        <v>2663.95598815425</v>
+        <v>204.2649993896484</v>
       </c>
       <c r="G41">
-        <v>2235.706587155726</v>
+        <v>178</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>676870933</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>117323448000</v>
@@ -5424,22 +5364,22 @@
         <v>45688</v>
       </c>
       <c r="D42">
-        <v>3384.87474202474</v>
+        <v>181.5599975585937</v>
       </c>
       <c r="E42">
-        <v>2973.53564453125</v>
+        <v>190.4299926757812</v>
       </c>
       <c r="F42">
-        <v>3389.830634765625</v>
+        <v>208.3899993896484</v>
       </c>
       <c r="G42">
-        <v>2906.135503255208</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="H42">
-        <v>52985470</v>
+        <v>676870933</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>121016404000</v>
@@ -5552,22 +5492,22 @@
         <v>45777</v>
       </c>
       <c r="D43">
-        <v>32.8338091994006</v>
+        <v>188.6399993896484</v>
       </c>
       <c r="E43">
-        <v>33.02415084838867</v>
+        <v>192.4199981689453</v>
       </c>
       <c r="F43">
-        <v>35.02272908660098</v>
+        <v>195.4199981689453</v>
       </c>
       <c r="G43">
-        <v>31.64417843130638</v>
+        <v>178.6399993896484</v>
       </c>
       <c r="H43">
-        <v>3006208000</v>
+        <v>676870933</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>123766353000</v>
@@ -5680,22 +5620,22 @@
         <v>45869</v>
       </c>
       <c r="D44">
-        <v>14.76500034332275</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="E44">
-        <v>15.5649995803833</v>
+        <v>190.5200042724609</v>
       </c>
       <c r="F44">
-        <v>16.04500007629395</v>
+        <v>192.7899932861328</v>
       </c>
       <c r="G44">
-        <v>14.39999961853027</v>
+        <v>165.2100067138672</v>
       </c>
       <c r="H44">
-        <v>219937482</v>
+        <v>676870933</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>115756480000</v>
